--- a/Documentação/SprintBacklog.xlsx
+++ b/Documentação/SprintBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/manoel_almeida_bandtec_com_br/Documents/Acadêmico/Tecnologia da Informação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{5A094AE7-00E7-4183-AE5F-0EFBC75262CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6B15C53-2998-4D1B-A882-31607F4492AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="1" activeTab="3" xr2:uid="{0930331F-628B-4B19-82A4-929781BDB48F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Sprint 1 (16-09 à 22-09)" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Sprint 4 (07-10 à 13-10)" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 5 (14-10 à 20-10)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Requisito</t>
   </si>
@@ -142,12 +141,15 @@
   </si>
   <si>
     <t>Os algoritmos utilizados no projeto devem ter comentários explicando as funcionalidades</t>
+  </si>
+  <si>
+    <t>Preparação para a apresentação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,7 +602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743D6233-C3DC-4979-948A-E72ECB347ECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -818,7 +820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B231F21-BC21-4DFB-B6E7-8B5B810C4983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -980,7 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD8B64C-5699-4A1E-9322-C6A9B2C79686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1085,11 +1087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1927D-7D17-48E7-9E62-10DDDAD48D0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="13">
         <f>SUM(B2:B11)</f>
@@ -1140,7 +1142,7 @@
       </c>
       <c r="G2" s="14">
         <f>SUMIF(D2:D11,0,B2:B11)</f>
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1168,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1182,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1205,27 +1207,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758177DC-9D56-475E-8639-A707FF62ECDC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="68.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="11">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B2:B11)</f>
+        <v>21</v>
+      </c>
+      <c r="G2" s="14">
+        <f>SUMIF(D2:D11,0,B2:B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -1428,6 +1471,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1435,14 +1487,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E91A034-4082-4624-B872-C130C5111857}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1461,6 +1505,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
   <ds:schemaRefs>

--- a/Documentação/SprintBacklog.xlsx
+++ b/Documentação/SprintBacklog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facul BandTec\PI\Projeto PI\blind-market\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name=" Sprint 1 (16-09 à 22-09)" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sprint 3 (30-09 à 06-10)" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 4 (07-10 à 13-10)" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 5 (14-10 à 20-10)" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint 6 (28-10 à 04-10)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Requisito</t>
   </si>
@@ -144,13 +145,55 @@
   </si>
   <si>
     <t>Preparação para a apresentação</t>
+  </si>
+  <si>
+    <t>Ao fazer login o usuário entra na dashboard contendo o menu lateral</t>
+  </si>
+  <si>
+    <t>No menu lateral, está a tela dos Estabelecimentos, que mostra um gráfico de variação dos registros do estabelecimento, grafico estatístico dos produtos do estabelecimento e uma lista dos produtos do estabelecimento.</t>
+  </si>
+  <si>
+    <t>Script de criação no Azure (Final)</t>
+  </si>
+  <si>
+    <t>O arduino deve diferenciar o tempo de aproximação</t>
+  </si>
+  <si>
+    <t>Gravar mp3 com dados dos produtos</t>
+  </si>
+  <si>
+    <t>Colocar os graficos estáticos na dashboard</t>
+  </si>
+  <si>
+    <t>Reproduzir audio ao se aproximar do sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurar SELECTs para os gráficos estatísticos  </t>
+  </si>
+  <si>
+    <t>Fazer página de busca de supermercados próximos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer página de busca de produtos para o cliente final  </t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Manoel</t>
+  </si>
+  <si>
+    <t>Pedro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +201,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +256,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -289,6 +352,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,22 +1180,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1211,7 +1287,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1344,236 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="19">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B2:B11)</f>
+        <v>144</v>
+      </c>
+      <c r="G2" s="14">
+        <f>SUMIF(D2:D11,0,B2:B11)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="19">
+        <v>21</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="19">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19">
+        <v>3</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="19">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="19">
+        <v>21</v>
+      </c>
+      <c r="C7" s="19">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="19">
+        <v>21</v>
+      </c>
+      <c r="C8" s="19">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="18">
+        <v>13</v>
+      </c>
+      <c r="C9" s="19">
+        <v>8</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="17">
+        <v>21</v>
+      </c>
+      <c r="C10" s="19">
+        <v>9</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="17">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18">
+        <v>10</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -1471,22 +1776,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E91A034-4082-4624-B872-C130C5111857}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1503,21 +1810,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentação/SprintBacklog.xlsx
+++ b/Documentação/SprintBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facul BandTec\PI\Projeto PI\blind-market\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Requisito</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Pedro</t>
+  </si>
+  <si>
+    <t>Fluxograma do Processo de Atendimento do Suporte</t>
+  </si>
+  <si>
+    <t>Ferramenta de Help Desk configurada e integrada à solução</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -327,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -365,6 +377,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,7 +915,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,12 +1410,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="13">
-        <f>SUM(B2:B11)</f>
-        <v>144</v>
+        <f>SUM(B2:B19)</f>
+        <v>173</v>
       </c>
       <c r="G2" s="14">
-        <f>SUMIF(D2:D11,0,B2:B11)</f>
-        <v>110</v>
+        <f>SUMIF(D2:D19,0,B2:B19)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1445,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>48</v>
@@ -1479,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>48</v>
@@ -1551,6 +1566,34 @@
       </c>
       <c r="E11" s="20" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="17">
+        <v>21</v>
+      </c>
+      <c r="C13" s="21">
+        <v>12</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1559,18 +1602,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1777,18 +1820,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentação/SprintBacklog.xlsx
+++ b/Documentação/SprintBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name=" Sprint 1 (16-09 à 22-09)" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sprint 4 (07-10 à 13-10)" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 5 (14-10 à 20-10)" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 6 (28-10 à 04-10)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint 7 (04-10 à 11-10)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Requisito</t>
   </si>
@@ -193,6 +194,33 @@
   </si>
   <si>
     <t>Ferramenta de Help Desk configurada e integrada à solução</t>
+  </si>
+  <si>
+    <t>Pesquisar ferramenta de HelpDesk</t>
+  </si>
+  <si>
+    <t>Conclur Layouyt da Dashboard</t>
+  </si>
+  <si>
+    <t>No menu superior está a tela dos Produtos, que exibe o gráfico estatísitico dos produtos e uma lista dos produtos</t>
+  </si>
+  <si>
+    <t>Na lista dos produtos, conterá o ID, seu nome, categoria que pertence, preço e sua localização (estabelecimento/Corredor/Sensor)</t>
+  </si>
+  <si>
+    <t>Formulário de cadastro de produtos</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Reproduzir audio ao se aproximar do sensor (arduino)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No gráfico estatístico dos produtos mostra os produtos mais acessados e sua quantidade </t>
+  </si>
+  <si>
+    <t>Implementar layout da tela principal da Dashboard</t>
   </si>
 </sst>
 </file>
@@ -339,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -380,6 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1444,7 @@
       </c>
       <c r="G2" s="14">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1477,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>47</v>
@@ -1545,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>47</v>
@@ -1594,6 +1623,227 @@
       </c>
       <c r="D13" s="18">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="101.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="17">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B2:B19)</f>
+        <v>107</v>
+      </c>
+      <c r="G2" s="14">
+        <f>SUMIF(D2:D19,0,B2:B19)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="17">
+        <v>13</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="19">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="18">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="19">
+        <v>13</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="17">
+        <v>13</v>
+      </c>
+      <c r="C7" s="18">
+        <v>6</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="18">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="18">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="18">
+        <v>13</v>
+      </c>
+      <c r="C10" s="21">
+        <v>9</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="18">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1611,12 +1861,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -1819,6 +2063,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
   <ds:schemaRefs>
@@ -1828,15 +2078,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E91A034-4082-4624-B872-C130C5111857}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1853,4 +2094,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentação/SprintBacklog.xlsx
+++ b/Documentação/SprintBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="4" activeTab="6"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name=" Sprint 1 (16-09 à 22-09)" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sprint 5 (14-10 à 20-10)" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 6 (28-10 à 04-10)" sheetId="6" r:id="rId6"/>
     <sheet name="Sprint 7 (04-10 à 11-10)" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint 8 (12-10 à 18-10)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>Requisito</t>
   </si>
@@ -166,9 +167,6 @@
     <t>Colocar os graficos estáticos na dashboard</t>
   </si>
   <si>
-    <t>Reproduzir audio ao se aproximar do sensor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Configurar SELECTs para os gráficos estatísticos  </t>
   </si>
   <si>
@@ -181,9 +179,6 @@
     <t>Arthur</t>
   </si>
   <si>
-    <t>João</t>
-  </si>
-  <si>
     <t>Manoel</t>
   </si>
   <si>
@@ -221,13 +216,34 @@
   </si>
   <si>
     <t>Implementar layout da tela principal da Dashboard</t>
+  </si>
+  <si>
+    <t>Manual de Instalação</t>
+  </si>
+  <si>
+    <t>PPT da Apresentação do Projeto</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica e Dicionário de Dados</t>
+  </si>
+  <si>
+    <t>Colocar dados de empresas, estabelecimentos, sensor,  produtos e categorias no BD</t>
+  </si>
+  <si>
+    <t>Fazer conexão do site com banco de dados</t>
+  </si>
+  <si>
+    <t>Fazer conexão do arduino com banco de dados</t>
+  </si>
+  <si>
+    <t>Quando um sensor é acionado, deve ser criado um registro no banco de dados com a data e hora de ativação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +259,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,18 +324,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -363,11 +380,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -404,11 +434,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,11 +1475,11 @@
       </c>
       <c r="F2" s="13">
         <f>SUM(B2:B19)</f>
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="G2" s="14">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1463,166 +1498,72 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
       </c>
       <c r="C4" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="19">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C6" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="19">
+        <v>43</v>
+      </c>
+      <c r="B7" s="17">
         <v>21</v>
       </c>
       <c r="C7" s="19">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="19">
-        <v>21</v>
-      </c>
-      <c r="C8" s="19">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="17">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20">
+        <v>11</v>
       </c>
       <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="18">
-        <v>13</v>
-      </c>
-      <c r="C9" s="19">
-        <v>8</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="17">
-        <v>21</v>
-      </c>
-      <c r="C10" s="19">
-        <v>9</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="17">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18">
-        <v>10</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="17">
-        <v>8</v>
-      </c>
-      <c r="C12" s="21">
-        <v>11</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="17">
-        <v>21</v>
-      </c>
-      <c r="C13" s="21">
-        <v>12</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1634,13 +1575,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.5703125" customWidth="1"/>
+    <col min="1" max="1" width="102.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -1660,7 +1601,6 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
       <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
@@ -1670,32 +1610,29 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="17">
         <v>8</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F2" s="13">
         <f>SUM(B2:B19)</f>
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G2" s="14">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="17">
         <v>13</v>
@@ -1704,10 +1641,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,133 +1651,109 @@
       <c r="B4" s="19">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>3</v>
       </c>
       <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="18">
+        <v>56</v>
+      </c>
+      <c r="B5" s="19">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="17">
+        <v>13</v>
+      </c>
+      <c r="C6" s="18">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="18">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20">
+        <v>7</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18">
         <v>8</v>
       </c>
-      <c r="C5" s="18">
-        <v>4</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="18">
         <v>13</v>
       </c>
-      <c r="C6" s="21">
-        <v>5</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="17">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18">
-        <v>6</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="18">
-        <v>13</v>
-      </c>
-      <c r="C8" s="21">
-        <v>7</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="18">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18">
-        <v>8</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>57</v>
+      <c r="C9" s="20">
+        <v>9</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="18">
         <v>13</v>
       </c>
-      <c r="C10" s="21">
-        <v>9</v>
+      <c r="C10" s="18">
+        <v>10</v>
       </c>
       <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="18">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B11" s="17">
+        <v>21</v>
+      </c>
+      <c r="C11" s="20">
+        <v>12</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1851,13 +1761,230 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="17">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B2:B19)</f>
+        <v>110</v>
+      </c>
+      <c r="G2" s="14">
+        <f>SUMIF(D2:D19,0,B2:B19)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="17">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="17">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="17">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="17">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="17">
+        <v>21</v>
+      </c>
+      <c r="C8" s="17">
+        <v>7</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="17">
+        <v>21</v>
+      </c>
+      <c r="C9" s="17">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="17">
+        <v>13</v>
+      </c>
+      <c r="C10" s="18">
+        <v>9</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="18">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2064,15 +2191,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2097,10 +2228,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>